--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H2">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I2">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J2">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N2">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q2">
-        <v>18.28359220756733</v>
+        <v>27.67138736494534</v>
       </c>
       <c r="R2">
-        <v>164.552329868106</v>
+        <v>249.042486284508</v>
       </c>
       <c r="S2">
-        <v>0.00175357472581245</v>
+        <v>0.003316213571815259</v>
       </c>
       <c r="T2">
-        <v>0.00175357472581245</v>
+        <v>0.003316213571815258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H3">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I3">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J3">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.576131</v>
       </c>
       <c r="O3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q3">
-        <v>7.733529842018444</v>
+        <v>13.09097767649467</v>
       </c>
       <c r="R3">
-        <v>69.601768578166</v>
+        <v>117.818799088452</v>
       </c>
       <c r="S3">
-        <v>0.0007417209002652689</v>
+        <v>0.001568858014474474</v>
       </c>
       <c r="T3">
-        <v>0.0007417209002652689</v>
+        <v>0.001568858014474474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H4">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I4">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J4">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N4">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O4">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P4">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q4">
-        <v>96.21198050378932</v>
+        <v>149.59748349966</v>
       </c>
       <c r="R4">
-        <v>865.9078245341038</v>
+        <v>1346.37735149694</v>
       </c>
       <c r="S4">
-        <v>0.009227666829168087</v>
+        <v>0.01792816523971789</v>
       </c>
       <c r="T4">
-        <v>0.009227666829168087</v>
+        <v>0.01792816523971788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H5">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I5">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J5">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N5">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q5">
-        <v>1.869179057404666</v>
+        <v>4.036259271221335</v>
       </c>
       <c r="R5">
-        <v>16.822611516642</v>
+        <v>36.326333440992</v>
       </c>
       <c r="S5">
-        <v>0.0001792724928379308</v>
+        <v>0.0004837161793899016</v>
       </c>
       <c r="T5">
-        <v>0.0001792724928379308</v>
+        <v>0.0004837161793899014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8413286666666666</v>
+        <v>1.424164</v>
       </c>
       <c r="H6">
-        <v>2.523986</v>
+        <v>4.272492</v>
       </c>
       <c r="I6">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="J6">
-        <v>0.02028001244158346</v>
+        <v>0.03823384556371837</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N6">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q6">
-        <v>87.35063584240267</v>
+        <v>124.637491240836</v>
       </c>
       <c r="R6">
-        <v>786.155722581624</v>
+        <v>1121.737421167524</v>
       </c>
       <c r="S6">
-        <v>0.008377777493499721</v>
+        <v>0.01493689255832086</v>
       </c>
       <c r="T6">
-        <v>0.008377777493499721</v>
+        <v>0.01493689255832085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I7">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J7">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N7">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O7">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P7">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q7">
-        <v>71.10115545522066</v>
+        <v>63.56993238980377</v>
       </c>
       <c r="R7">
-        <v>639.9103990969859</v>
+        <v>572.129391508234</v>
       </c>
       <c r="S7">
-        <v>0.006819293920301566</v>
+        <v>0.007618391870640569</v>
       </c>
       <c r="T7">
-        <v>0.006819293920301566</v>
+        <v>0.007618391870640567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I8">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J8">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.576131</v>
       </c>
       <c r="O8">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P8">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q8">
         <v>30.07411789064955</v>
@@ -948,10 +948,10 @@
         <v>270.667061015846</v>
       </c>
       <c r="S8">
-        <v>0.002884401075862974</v>
+        <v>0.003604163267783489</v>
       </c>
       <c r="T8">
-        <v>0.002884401075862974</v>
+        <v>0.003604163267783488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I9">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J9">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N9">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O9">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P9">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q9">
-        <v>374.1487397440026</v>
+        <v>343.6727543269299</v>
       </c>
       <c r="R9">
-        <v>3367.338657696023</v>
+        <v>3093.05478894237</v>
       </c>
       <c r="S9">
-        <v>0.03588451143851881</v>
+        <v>0.04118666827691773</v>
       </c>
       <c r="T9">
-        <v>0.03588451143851881</v>
+        <v>0.04118666827691773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I10">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J10">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N10">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O10">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P10">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q10">
-        <v>7.268855552311332</v>
+        <v>9.272564674668446</v>
       </c>
       <c r="R10">
-        <v>65.41969997080199</v>
+        <v>83.45308207201602</v>
       </c>
       <c r="S10">
-        <v>0.0006971541061192043</v>
+        <v>0.001111249118597671</v>
       </c>
       <c r="T10">
-        <v>0.0006971541061192043</v>
+        <v>0.001111249118597671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.815265999999999</v>
       </c>
       <c r="I11">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133262</v>
       </c>
       <c r="J11">
-        <v>0.07886482595285833</v>
+        <v>0.08783524098133261</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N11">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O11">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P11">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q11">
-        <v>339.6887803903493</v>
+        <v>286.331754419078</v>
       </c>
       <c r="R11">
-        <v>3057.199023513144</v>
+        <v>2576.985789771702</v>
       </c>
       <c r="S11">
-        <v>0.03257946541205578</v>
+        <v>0.03431476844739317</v>
       </c>
       <c r="T11">
-        <v>0.03257946541205578</v>
+        <v>0.03431476844739315</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H12">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I12">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J12">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N12">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O12">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P12">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q12">
-        <v>348.7192164634943</v>
+        <v>342.6480058755033</v>
       </c>
       <c r="R12">
-        <v>3138.472948171448</v>
+        <v>3083.832052879529</v>
       </c>
       <c r="S12">
-        <v>0.03344557226245786</v>
+        <v>0.04106385966318617</v>
       </c>
       <c r="T12">
-        <v>0.03344557226245786</v>
+        <v>0.04106385966318617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H13">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I13">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J13">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.576131</v>
       </c>
       <c r="O13">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P13">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q13">
-        <v>147.5000337127154</v>
+        <v>162.1023672088834</v>
       </c>
       <c r="R13">
-        <v>1327.500303414439</v>
+        <v>1458.921304879951</v>
       </c>
       <c r="S13">
-        <v>0.01414669110089042</v>
+        <v>0.01942678417499512</v>
       </c>
       <c r="T13">
-        <v>0.01414669110089042</v>
+        <v>0.01942678417499512</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H14">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I14">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J14">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N14">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O14">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P14">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q14">
-        <v>1835.031435551057</v>
+        <v>1852.428963142205</v>
       </c>
       <c r="R14">
-        <v>16515.28291995951</v>
+        <v>16671.86066827984</v>
       </c>
       <c r="S14">
-        <v>0.1759974030224674</v>
+        <v>0.222000074928588</v>
       </c>
       <c r="T14">
-        <v>0.1759974030224674</v>
+        <v>0.2220000749285879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H15">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I15">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J15">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N15">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O15">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P15">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q15">
-        <v>35.65047004594366</v>
+        <v>49.98000903389957</v>
       </c>
       <c r="R15">
-        <v>320.854230413493</v>
+        <v>449.8200813050961</v>
       </c>
       <c r="S15">
-        <v>0.003419227607254673</v>
+        <v>0.005989738862448049</v>
       </c>
       <c r="T15">
-        <v>0.003419227607254673</v>
+        <v>0.005989738862448047</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.04648966666667</v>
+        <v>17.63507366666667</v>
       </c>
       <c r="H16">
-        <v>48.139469</v>
+        <v>52.905221</v>
       </c>
       <c r="I16">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787783</v>
       </c>
       <c r="J16">
-        <v>0.3867965314590577</v>
+        <v>0.4734403362787782</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N16">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O16">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P16">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q16">
-        <v>1666.020820347511</v>
+        <v>1543.355498145343</v>
       </c>
       <c r="R16">
-        <v>14994.1873831276</v>
+        <v>13890.19948330809</v>
       </c>
       <c r="S16">
-        <v>0.1597876374659873</v>
+        <v>0.184959878649561</v>
       </c>
       <c r="T16">
-        <v>0.1597876374659873</v>
+        <v>0.184959878649561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H17">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I17">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J17">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N17">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O17">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P17">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q17">
-        <v>11.48044278228167</v>
+        <v>10.60920711263078</v>
       </c>
       <c r="R17">
-        <v>103.323985040535</v>
+        <v>95.482864013677</v>
       </c>
       <c r="S17">
-        <v>0.001101086377096773</v>
+        <v>0.001271435947504205</v>
       </c>
       <c r="T17">
-        <v>0.001101086377096773</v>
+        <v>0.001271435947504205</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H18">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I18">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J18">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.576131</v>
       </c>
       <c r="O18">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P18">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q18">
-        <v>4.855957508153889</v>
+        <v>5.019079515062556</v>
       </c>
       <c r="R18">
-        <v>43.703617573385</v>
+        <v>45.171715635563</v>
       </c>
       <c r="S18">
-        <v>0.0004657336621407201</v>
+        <v>0.0006015000038254596</v>
       </c>
       <c r="T18">
-        <v>0.0004657336621407201</v>
+        <v>0.0006015000038254595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H19">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I19">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J19">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N19">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O19">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P19">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q19">
-        <v>60.41242468132666</v>
+        <v>57.355660019665</v>
       </c>
       <c r="R19">
-        <v>543.7118221319399</v>
+        <v>516.200940176985</v>
       </c>
       <c r="S19">
-        <v>0.005794140442619178</v>
+        <v>0.006873656736799132</v>
       </c>
       <c r="T19">
-        <v>0.005794140442619177</v>
+        <v>0.006873656736799131</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H20">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I20">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J20">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N20">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O20">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P20">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q20">
-        <v>1.173675444888333</v>
+        <v>1.547501395716445</v>
       </c>
       <c r="R20">
-        <v>10.563079003995</v>
+        <v>13.927512561448</v>
       </c>
       <c r="S20">
-        <v>0.0001125669164515184</v>
+        <v>0.0001854567341780287</v>
       </c>
       <c r="T20">
-        <v>0.0001125669164515184</v>
+        <v>0.0001854567341780287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5282783333333333</v>
+        <v>0.5460243333333333</v>
       </c>
       <c r="H21">
-        <v>1.584835</v>
+        <v>1.638073</v>
       </c>
       <c r="I21">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="J21">
-        <v>0.01273401418147998</v>
+        <v>0.01465885251607185</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N21">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O21">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P21">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q21">
-        <v>54.84830143879333</v>
+        <v>47.786001516059</v>
       </c>
       <c r="R21">
-        <v>493.63471294914</v>
+        <v>430.074013644531</v>
       </c>
       <c r="S21">
-        <v>0.005260486783171789</v>
+        <v>0.005726803093765025</v>
       </c>
       <c r="T21">
-        <v>0.005260486783171789</v>
+        <v>0.005726803093765024</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H22">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I22">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J22">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N22">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O22">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P22">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q22">
-        <v>451.972841156899</v>
+        <v>279.2420943627467</v>
       </c>
       <c r="R22">
-        <v>4067.75557041209</v>
+        <v>2513.17884926472</v>
       </c>
       <c r="S22">
-        <v>0.04334860141314847</v>
+        <v>0.03346512449610555</v>
       </c>
       <c r="T22">
-        <v>0.04334860141314845</v>
+        <v>0.03346512449610554</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H23">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I23">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J23">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.576131</v>
       </c>
       <c r="O23">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P23">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q23">
-        <v>191.1738905127224</v>
+        <v>132.1058454868533</v>
       </c>
       <c r="R23">
-        <v>1720.565014614501</v>
+        <v>1188.95260938168</v>
       </c>
       <c r="S23">
-        <v>0.01833543971187436</v>
+        <v>0.0158319202410001</v>
       </c>
       <c r="T23">
-        <v>0.01833543971187435</v>
+        <v>0.0158319202410001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H24">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I24">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J24">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N24">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O24">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P24">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q24">
-        <v>2378.373007227316</v>
+        <v>1509.6429410244</v>
       </c>
       <c r="R24">
-        <v>21405.35706504584</v>
+        <v>13586.7864692196</v>
       </c>
       <c r="S24">
-        <v>0.2281091563780446</v>
+        <v>0.1809196750272918</v>
       </c>
       <c r="T24">
-        <v>0.2281091563780445</v>
+        <v>0.1809196750272917</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H25">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I25">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J25">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N25">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O25">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P25">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q25">
-        <v>46.20635592914299</v>
+        <v>40.73136910058668</v>
       </c>
       <c r="R25">
-        <v>415.857203362287</v>
+        <v>366.5823219052801</v>
       </c>
       <c r="S25">
-        <v>0.004431639964913664</v>
+        <v>0.004881356949275935</v>
       </c>
       <c r="T25">
-        <v>0.004431639964913663</v>
+        <v>0.004881356949275933</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.797757</v>
+        <v>14.37176</v>
       </c>
       <c r="H26">
-        <v>62.393271</v>
+        <v>43.11528</v>
       </c>
       <c r="I26">
-        <v>0.5013246159650206</v>
+        <v>0.385831724660099</v>
       </c>
       <c r="J26">
-        <v>0.5013246159650205</v>
+        <v>0.3858317246600989</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N26">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O26">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P26">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q26">
-        <v>2159.319383759396</v>
+        <v>1257.76252672824</v>
       </c>
       <c r="R26">
-        <v>19433.87445383456</v>
+        <v>11319.86274055416</v>
       </c>
       <c r="S26">
-        <v>0.2070997784970396</v>
+        <v>0.1507336479464257</v>
       </c>
       <c r="T26">
-        <v>0.2070997784970395</v>
+        <v>0.1507336479464256</v>
       </c>
     </row>
   </sheetData>
